--- a/Grafieken/min.xlsx
+++ b/Grafieken/min.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerben\Documents\OMVISWEG\Grafieken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,14 +99,14 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -172,7 +172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$14</c:f>
+              <c:f>Blad1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -185,21 +185,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="58000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="58000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="58000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -216,7 +219,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$B$13:$C$13</c:f>
+              <c:f>Blad1!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -230,7 +233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$14:$C$14</c:f>
+              <c:f>Blad1!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -249,7 +252,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$15</c:f>
+              <c:f>Blad1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -262,21 +265,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="86000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="86000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="86000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -293,7 +299,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$B$13:$C$13</c:f>
+              <c:f>Blad1!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -307,7 +313,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$15:$C$15</c:f>
+              <c:f>Blad1!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -326,7 +332,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$16</c:f>
+              <c:f>Blad1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -339,21 +345,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="86000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="86000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="86000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -370,7 +379,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$B$13:$C$13</c:f>
+              <c:f>Blad1!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -384,7 +393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$16:$C$16</c:f>
+              <c:f>Blad1!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -403,7 +412,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$17</c:f>
+              <c:f>Blad1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -416,21 +425,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="58000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="58000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="58000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -447,7 +459,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$B$13:$C$13</c:f>
+              <c:f>Blad1!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -461,7 +473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$17:$C$17</c:f>
+              <c:f>Blad1!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -485,11 +497,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="277489824"/>
-        <c:axId val="277490384"/>
+        <c:axId val="247895048"/>
+        <c:axId val="247895440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277489824"/>
+        <c:axId val="247895048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +541,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277490384"/>
+        <c:crossAx val="247895440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277490384"/>
+        <c:axId val="247895440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -587,7 +599,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277489824"/>
+        <c:crossAx val="247895048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -666,42 +678,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1178,16 +1156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1210,9 +1188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1250,7 +1228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1322,7 +1300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1472,66 +1450,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:C17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B2">
         <f>(15+14+15+15+14)/5</f>
         <v>14.6</v>
       </c>
-      <c r="C14">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B3">
         <f>(2+2+2+2+2)/5</f>
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B4">
         <f>(10+5+14+16+8)/5</f>
         <v>10.6</v>
       </c>
-      <c r="C16">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C5">
         <f>(889492+888574+944058+901526+903803)/5</f>
         <v>905490.6</v>
       </c>
